--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1D28C-C4E2-C240-A06E-8D0B3CA494D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91D524-C594-C14F-93E8-E3216DF15CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="331">
   <si>
     <t>table_name</t>
   </si>
@@ -1073,16 +1073,10 @@
     <t>required_entities</t>
   </si>
   <si>
-    <t>sirius_table</t>
-  </si>
-  <si>
     <t>table_type</t>
   </si>
   <si>
     <t>casrec_conditions</t>
-  </si>
-  <si>
-    <t>casrec_additional_columns</t>
   </si>
   <si>
     <t>mapping_file_name</t>
@@ -1104,6 +1098,18 @@
   </si>
   <si>
     <t>client_phonenumbers</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
   </si>
 </sst>
 </file>
@@ -1529,40 +1535,40 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="C1" t="s">
         <v>317</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>320</v>
-      </c>
       <c r="H1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>18</v>
@@ -1571,10 +1577,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>37</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>101</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>18</v>
@@ -1611,10 +1617,10 @@
         <v>157</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>101</v>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91D524-C594-C14F-93E8-E3216DF15CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769AF940-4E36-F940-805D-FAA6E50D4678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20120" yWindow="2220" windowWidth="35840" windowHeight="21940" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definition" sheetId="11" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="crec_lookup" sheetId="2" r:id="rId3"/>
     <sheet name="client_phonenumbers" sheetId="3" r:id="rId4"/>
     <sheet name="large_print_special_req_lookup" sheetId="4" r:id="rId5"/>
-    <sheet name="audio_special_req_lookup" sheetId="5" r:id="rId6"/>
-    <sheet name="hearing_imp_special_req_lookup" sheetId="6" r:id="rId7"/>
-    <sheet name="accommodation_type_lookup" sheetId="7" r:id="rId8"/>
-    <sheet name="marital_status_lookup" sheetId="8" r:id="rId9"/>
-    <sheet name="title_codes_lookup" sheetId="9" r:id="rId10"/>
-    <sheet name="corres_indicator_lookup" sheetId="10" r:id="rId11"/>
+    <sheet name="date_of_death_lookup" sheetId="12" r:id="rId6"/>
+    <sheet name="client_addresses" sheetId="13" r:id="rId7"/>
+    <sheet name="audio_special_req_lookup" sheetId="5" r:id="rId8"/>
+    <sheet name="hearing_imp_special_req_lookup" sheetId="6" r:id="rId9"/>
+    <sheet name="accommodation_type_lookup" sheetId="7" r:id="rId10"/>
+    <sheet name="marital_status_lookup" sheetId="8" r:id="rId11"/>
+    <sheet name="title_codes_lookup" sheetId="9" r:id="rId12"/>
+    <sheet name="corres_indicator_lookup" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="352">
   <si>
     <t>table_name</t>
   </si>
@@ -1111,6 +1113,72 @@
   <si>
     <t>entity_name</t>
   </si>
+  <si>
+    <t>events:source_address_id</t>
+  </si>
+  <si>
+    <t>address_lines</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRS1
+ADRS2
+</t>
+  </si>
+  <si>
+    <t>Adrs1
+Adrs2</t>
+  </si>
+  <si>
+    <t>squash_columns</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>ADRS3</t>
+  </si>
+  <si>
+    <t>Adrs3</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>ADRS4</t>
+  </si>
+  <si>
+    <t>Adrs4</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>POSTCODE</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>isairmailrequired</t>
+  </si>
+  <si>
+    <t>FOREIGN</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>convert_to_bool</t>
+  </si>
 </sst>
 </file>
 
@@ -1260,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1314,9 +1382,17 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,14 +1610,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9E3160-B42C-BE40-AC73-EFC562B0D135}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
@@ -1550,16 +1626,16 @@
       <c r="C1" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>319</v>
       </c>
       <c r="H1" t="s">
@@ -1567,62 +1643,62 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="27" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1632,6 +1708,3246 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="13"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="13"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="13"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="13"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="13"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="13"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="13"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="13"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="13"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="13"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="13"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="13"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="13"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="13"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="13"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="13"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="13"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="13"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="13"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="13"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="13"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="13"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="13"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="13"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="13"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="13"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="13"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="13"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="13"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="13"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="13"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="13"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="13"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="13"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="13"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="13"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="13"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="13"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="13"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="13"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="13"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="13"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="13"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="13"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="13"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="13"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="13"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="13"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="13"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="13"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="13"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="13"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="13"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="13"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="13"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="13"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="13"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="13"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="13"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="13"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="13"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="13"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="13"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="13"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="13"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="13"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="13"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="13"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="13"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="13"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="13"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="13"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="13"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="13"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="13"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="13"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="13"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="13"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="13"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="13"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="13"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="13"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="13"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="13"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="13"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="13"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="13"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="13"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="13"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="13"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="13"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="13"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="13"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="13"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="13"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="13"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="13"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="13"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="13"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="13"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="13"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="13"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="13"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="13"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="13"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="13"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="13"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="13"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="13"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="13"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="13"/>
+    </row>
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B221" s="13"/>
+    </row>
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="13"/>
+    </row>
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B223" s="13"/>
+    </row>
+    <row r="224" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="13" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="13"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="13"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="13"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="13"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="13"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="13"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="13"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="13"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="13"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="13"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="13"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="13"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="13"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="13"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="13"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="13"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="13"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="13"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="13"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="13"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="13"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="13"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="13"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="13"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="13"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="13"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="13"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="13"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="13"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="13"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="13"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="13"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="13"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="13"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="13"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="13"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="13"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="13"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="13"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="13"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="13"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="13"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="13"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="13"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="13"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="13"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="13"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="13"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="13"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="13"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="13"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="13"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="13"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="13"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="13"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="13"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="13"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="13"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="13"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="13"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="13"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="13"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="13"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="13"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="13"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="13"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="13"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="13"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="13"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="13"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="13"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="13"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="13"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="13"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="13"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="13"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="13"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="13"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="13"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="13"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="13"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="13"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="13"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="13"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="13"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="13"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="13"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="13"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="13"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="13"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="13"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="13"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="13"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="13"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="13"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="13"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="13"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="13"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="13"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="13"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="13"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="13"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="13"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="13"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="13"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="13"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="13"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="13"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="13"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="13"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="13"/>
+    </row>
+    <row r="221" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="13" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3462,7 +6778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6732,8 +10048,8 @@
       <c r="E50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="4" t="s">
         <v>30</v>
       </c>
@@ -6810,8 +10126,8 @@
       <c r="E52" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -7522,8 +10838,8 @@
       <c r="E74" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -7590,8 +10906,8 @@
       <c r="E76" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="28"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="30"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -7691,8 +11007,8 @@
       <c r="E79" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="28"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -9108,7 +12424,9 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23869,6 +27187,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5714D914-C55B-E34F-A303-7017D6FEBCD9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD70A127-873D-F443-A45A-BEEE39B7A773}">
+  <dimension ref="A1:Q1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="10.1640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="31" customWidth="1"/>
+    <col min="9" max="10" width="17.5" style="31" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="11" style="31" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="31" customWidth="1"/>
+    <col min="14" max="16" width="10.1640625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" style="31" customWidth="1"/>
+    <col min="18" max="16384" width="12.6640625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -30402,7 +35095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -36934,3244 +41627,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="64.1640625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="13"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-    </row>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="13"/>
-    </row>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="13"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="13"/>
-    </row>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="13"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="13"/>
-    </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="13"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="13"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="13"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="13"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="13"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="13"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="13"/>
-    </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="13"/>
-    </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="13"/>
-    </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="13"/>
-    </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="13"/>
-    </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="13"/>
-    </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="13"/>
-    </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="13"/>
-    </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="13"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="13"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="13"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="13"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="13"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="13"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="13"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="13"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="13"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="13"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="13"/>
-    </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="13"/>
-    </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="13"/>
-    </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="13"/>
-    </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="13"/>
-    </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="13"/>
-    </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="13"/>
-    </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="13"/>
-    </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="13"/>
-    </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="13"/>
-    </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="13"/>
-    </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="13"/>
-    </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="13"/>
-    </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="13"/>
-    </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="13"/>
-    </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="13"/>
-    </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="13"/>
-    </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="13"/>
-    </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="13"/>
-    </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="13"/>
-    </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="13"/>
-    </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="13"/>
-    </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="13"/>
-    </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="13"/>
-    </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="13"/>
-    </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="13"/>
-    </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="13"/>
-    </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="13"/>
-    </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="13"/>
-    </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="13"/>
-    </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="13"/>
-    </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="13"/>
-    </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="13"/>
-    </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="13"/>
-    </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="13"/>
-    </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="13"/>
-    </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="13"/>
-    </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="13"/>
-    </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="13"/>
-    </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="13"/>
-    </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="13"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="13"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="13"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="13"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="13"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="13"/>
-    </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B221" s="13"/>
-    </row>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B222" s="13"/>
-    </row>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B223" s="13"/>
-    </row>
-    <row r="224" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="13" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="13"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-    </row>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="13"/>
-    </row>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="13"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="13"/>
-    </row>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="13"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="13"/>
-    </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="13"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="13"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="13"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="13"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="13"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="13"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="13"/>
-    </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="13"/>
-    </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="13"/>
-    </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="13"/>
-    </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="13"/>
-    </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="13"/>
-    </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="13"/>
-    </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="13"/>
-    </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="13"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="13"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="13"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="13"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="13"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="13"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="13"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="13"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="13"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="13"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="13"/>
-    </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="13"/>
-    </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="13"/>
-    </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="13"/>
-    </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="13"/>
-    </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="13"/>
-    </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="13"/>
-    </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="13"/>
-    </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="13"/>
-    </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="13"/>
-    </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="13"/>
-    </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="13"/>
-    </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="13"/>
-    </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="13"/>
-    </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="13"/>
-    </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="13"/>
-    </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="13"/>
-    </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="13"/>
-    </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="13"/>
-    </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="13"/>
-    </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="13"/>
-    </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="13"/>
-    </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="13"/>
-    </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="13"/>
-    </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="13"/>
-    </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="13"/>
-    </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="13"/>
-    </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="13"/>
-    </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="13"/>
-    </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="13"/>
-    </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="13"/>
-    </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="13"/>
-    </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="13"/>
-    </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="13"/>
-    </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="13"/>
-    </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="13"/>
-    </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="13"/>
-    </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="13"/>
-    </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="13"/>
-    </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="13"/>
-    </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="13"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="13"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="13"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="13"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="13"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="13"/>
-    </row>
-    <row r="221" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="222" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="223" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="224" spans="2:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="13" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>
--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769AF940-4E36-F940-805D-FAA6E50D4678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A99F1-C677-C146-8E2C-3D3E4E3E4D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="2220" windowWidth="35840" windowHeight="21940" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20120" yWindow="2220" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definition" sheetId="11" r:id="rId1"/>
@@ -1384,8 +1384,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1393,6 +1391,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,11 +1610,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9E3160-B42C-BE40-AC73-EFC562B0D135}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
@@ -10048,8 +10051,8 @@
       <c r="E50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="4" t="s">
         <v>30</v>
       </c>
@@ -10126,8 +10129,8 @@
       <c r="E52" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -10838,8 +10841,8 @@
       <c r="E74" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="30"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -10906,8 +10909,8 @@
       <c r="E76" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="30"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="33"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -11007,8 +11010,8 @@
       <c r="E79" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="30"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="33"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -27227,26 +27230,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD70A127-873D-F443-A45A-BEEE39B7A773}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.1640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="31" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="31" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="31" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="31" customWidth="1"/>
-    <col min="9" max="10" width="17.5" style="31" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="11" style="31" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="31" customWidth="1"/>
-    <col min="14" max="16" width="10.1640625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" style="31" customWidth="1"/>
-    <col min="18" max="16384" width="12.6640625" style="31"/>
+    <col min="1" max="2" width="10.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="29" customWidth="1"/>
+    <col min="9" max="10" width="17.5" style="29" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="11" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="29" customWidth="1"/>
+    <col min="14" max="16" width="10.1640625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" style="29" customWidth="1"/>
+    <col min="18" max="16384" width="12.6640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -27412,10 +27415,10 @@
       <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="30" t="s">
         <v>339</v>
       </c>
       <c r="N5" s="11"/>
@@ -27443,10 +27446,10 @@
       <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="30" t="s">
         <v>342</v>
       </c>
       <c r="N6" s="11"/>
@@ -27474,10 +27477,10 @@
       <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="31" t="s">
         <v>345</v>
       </c>
       <c r="N7" s="11"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724248B-2611-2B48-88EF-7F0B4CF0E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E5B12-6ED8-0B47-A7EE-9B86347C6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="9" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="344">
   <si>
     <t>table_name</t>
   </si>
@@ -1148,6 +1148,9 @@
   <si>
     <t>ACTIVE</t>
   </si>
+  <si>
+    <t>Client Phone = not null</t>
+  </si>
 </sst>
 </file>
 
@@ -1592,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D997D636-B97D-7B46-AB7B-633501338BD2}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1682,6 +1685,9 @@
       </c>
       <c r="F4" s="34" t="s">
         <v>339</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>99</v>
@@ -1699,7 +1705,7 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
@@ -12342,7 +12348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E5B12-6ED8-0B47-A7EE-9B86347C6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B9205-48D8-B546-9BFA-139CA63939F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="9" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="343">
   <si>
     <t>table_name</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>clientstatus</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
   <si>
     <t>Set to Death recorded if death record. Handled by death mapping</t>
@@ -1145,12 +1148,6 @@
   <si>
     <t>client_phonenumbers</t>
   </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Client Phone = not null</t>
-  </si>
 </sst>
 </file>
 
@@ -1595,56 +1592,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D997D636-B97D-7B46-AB7B-633501338BD2}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>37</v>
@@ -1652,19 +1646,19 @@
     </row>
     <row r="3" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>340</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>339</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>99</v>
@@ -1672,22 +1666,19 @@
     </row>
     <row r="4" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>99</v>
@@ -1705,9 +1696,9 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3453,7 +3444,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -3461,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3472,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>29</v>
@@ -3489,7 +3480,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="6"/>
       <c r="N53" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
@@ -3505,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>27</v>
@@ -3536,7 +3527,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -3567,7 +3558,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>27</v>
@@ -3598,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>54</v>
@@ -3631,7 +3622,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>27</v>
@@ -3662,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
@@ -3693,7 +3684,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>27</v>
@@ -3724,7 +3715,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>27</v>
@@ -3738,10 +3729,10 @@
         <v>30</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3761,7 +3752,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>54</v>
@@ -3794,7 +3785,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>54</v>
@@ -3827,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>54</v>
@@ -3860,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>54</v>
@@ -3893,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>54</v>
@@ -3926,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
@@ -3957,7 +3948,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>27</v>
@@ -3988,7 +3979,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
@@ -4007,7 +3998,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q69" s="4"/>
     </row>
@@ -4019,7 +4010,7 @@
         <v>18</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>54</v>
@@ -4052,7 +4043,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>27</v>
@@ -4083,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>27</v>
@@ -4114,7 +4105,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>54</v>
@@ -4138,7 +4129,7 @@
         <v>47</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4149,7 +4140,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>27</v>
@@ -4180,7 +4171,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
@@ -4190,7 +4181,7 @@
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -4206,7 +4197,7 @@
         <v>47</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4217,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>27</v>
@@ -4233,7 +4224,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -4250,7 +4241,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>27</v>
@@ -4278,10 +4269,10 @@
         <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>20</v>
@@ -4292,15 +4283,15 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4318,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>27</v>
@@ -4349,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>59</v>
@@ -4366,7 +4357,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
@@ -4382,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>20</v>
@@ -5749,25 +5740,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>34</v>
@@ -5794,16 +5785,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5832,7 +5823,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -12348,7 +12339,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12423,7 +12414,7 @@
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
@@ -12438,24 +12429,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
@@ -12464,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -12472,21 +12463,21 @@
         <v>99</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -12498,20 +12489,20 @@
         <v>30</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -12526,23 +12517,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>54</v>
@@ -12556,18 +12547,18 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>59</v>
@@ -12576,11 +12567,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14031,16 +14022,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>16</v>
@@ -14050,264 +14041,264 @@
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15780,127 +15771,127 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -17337,16 +17328,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17355,10 +17346,10 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17367,10 +17358,10 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17379,10 +17370,10 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17391,10 +17382,10 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17403,10 +17394,10 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17415,10 +17406,10 @@
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17427,10 +17418,10 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17439,10 +17430,10 @@
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17451,10 +17442,10 @@
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17463,10 +17454,10 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17475,10 +17466,10 @@
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17487,10 +17478,10 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17499,10 +17490,10 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17511,10 +17502,10 @@
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17523,10 +17514,10 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17535,10 +17526,10 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17547,10 +17538,10 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17559,10 +17550,10 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17571,10 +17562,10 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17583,10 +17574,10 @@
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17595,10 +17586,10 @@
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17607,10 +17598,10 @@
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17619,10 +17610,10 @@
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17631,10 +17622,10 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17643,10 +17634,10 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17655,10 +17646,10 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17667,10 +17658,10 @@
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17679,10 +17670,10 @@
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17691,10 +17682,10 @@
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17703,10 +17694,10 @@
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17715,10 +17706,10 @@
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17727,10 +17718,10 @@
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17739,10 +17730,10 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17751,10 +17742,10 @@
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17763,10 +17754,10 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19282,7 +19273,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>18</v>
@@ -19297,7 +19288,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -19309,7 +19300,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="30"/>
       <c r="R2" s="17"/>
@@ -19324,13 +19315,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>20</v>
@@ -19340,7 +19331,7 @@
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
@@ -19353,10 +19344,10 @@
         <v>99</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -19370,16 +19361,16 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" s="31" t="b">
         <v>0</v>
@@ -19390,20 +19381,20 @@
         <v>30</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="17"/>
@@ -19418,13 +19409,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>27</v>
@@ -19438,10 +19429,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -19449,7 +19440,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="17"/>
@@ -19464,13 +19455,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>27</v>
@@ -19484,10 +19475,10 @@
         <v>30</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -19495,7 +19486,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="17"/>
@@ -19510,13 +19501,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>27</v>
@@ -19530,10 +19521,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -19541,7 +19532,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="17"/>
@@ -19556,13 +19547,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>27</v>
@@ -19576,10 +19567,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -19587,7 +19578,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="17"/>
@@ -19602,7 +19593,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>18</v>
@@ -19624,12 +19615,12 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="17"/>
@@ -19644,13 +19635,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>54</v>
@@ -19664,20 +19655,20 @@
         <v>30</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="17"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B9205-48D8-B546-9BFA-139CA63939F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2457D9-FE2C-5240-860F-242F4FF41AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>clientstatus</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
   <si>
     <t>Set to Death recorded if death record. Handled by death mapping</t>
@@ -1148,6 +1145,9 @@
   <si>
     <t>client_phonenumbers</t>
   </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
 </sst>
 </file>
 
@@ -1600,45 +1600,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>335</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>337</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>338</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>339</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>340</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>37</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="3" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>339</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>340</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>99</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="4" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>339</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>340</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>99</v>
@@ -1698,7 +1698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P69" sqref="P69"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3444,7 +3444,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -3452,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3463,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>29</v>
@@ -3480,7 +3480,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="6"/>
       <c r="N53" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
@@ -3496,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>27</v>
@@ -3527,7 +3527,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -3558,7 +3558,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>27</v>
@@ -3589,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>54</v>
@@ -3622,7 +3622,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>27</v>
@@ -3653,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
@@ -3684,7 +3684,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>27</v>
@@ -3715,7 +3715,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>27</v>
@@ -3729,10 +3729,10 @@
         <v>30</v>
       </c>
       <c r="I61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>54</v>
@@ -3785,7 +3785,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>54</v>
@@ -3818,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>54</v>
@@ -3851,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>54</v>
@@ -3884,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>54</v>
@@ -3917,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
@@ -3948,7 +3948,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>27</v>
@@ -3979,7 +3979,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
@@ -4010,7 +4010,7 @@
         <v>18</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>54</v>
@@ -4043,7 +4043,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>27</v>
@@ -4074,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>27</v>
@@ -4105,7 +4105,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>54</v>
@@ -4129,7 +4129,7 @@
         <v>47</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4140,7 +4140,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>27</v>
@@ -4171,7 +4171,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -4197,7 +4197,7 @@
         <v>47</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4208,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>27</v>
@@ -4224,7 +4224,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -4241,7 +4241,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>27</v>
@@ -4269,10 +4269,10 @@
         <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>20</v>
@@ -4283,15 +4283,15 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4309,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>27</v>
@@ -4340,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>59</v>
@@ -4357,7 +4357,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
@@ -4373,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>20</v>
@@ -5740,25 +5740,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>34</v>
@@ -5785,16 +5785,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
@@ -12429,24 +12429,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -12463,21 +12463,21 @@
         <v>99</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -12489,20 +12489,20 @@
         <v>30</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -12517,23 +12517,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>54</v>
@@ -12547,18 +12547,18 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>59</v>
@@ -12567,11 +12567,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14022,16 +14022,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>16</v>
@@ -14041,264 +14041,264 @@
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15771,127 +15771,127 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>153</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -17328,16 +17328,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17346,10 +17346,10 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17358,10 +17358,10 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17370,10 +17370,10 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17382,10 +17382,10 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17394,10 +17394,10 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17406,10 +17406,10 @@
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17418,10 +17418,10 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17430,10 +17430,10 @@
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17442,10 +17442,10 @@
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17454,10 +17454,10 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17466,10 +17466,10 @@
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17478,10 +17478,10 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17490,10 +17490,10 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17502,10 +17502,10 @@
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17514,10 +17514,10 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17526,10 +17526,10 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17538,10 +17538,10 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17550,10 +17550,10 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17562,10 +17562,10 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17574,10 +17574,10 @@
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17586,10 +17586,10 @@
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17598,10 +17598,10 @@
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17610,10 +17610,10 @@
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17622,10 +17622,10 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17634,10 +17634,10 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17646,10 +17646,10 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17658,10 +17658,10 @@
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17670,10 +17670,10 @@
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17682,10 +17682,10 @@
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17694,10 +17694,10 @@
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17706,10 +17706,10 @@
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17718,10 +17718,10 @@
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17730,10 +17730,10 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17742,10 +17742,10 @@
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17754,10 +17754,10 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19273,7 +19273,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>18</v>
@@ -19288,7 +19288,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -19300,7 +19300,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q2" s="30"/>
       <c r="R2" s="17"/>
@@ -19315,13 +19315,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>20</v>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
@@ -19344,10 +19344,10 @@
         <v>99</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -19361,16 +19361,16 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>309</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>310</v>
       </c>
       <c r="E4" s="31" t="b">
         <v>0</v>
@@ -19381,20 +19381,20 @@
         <v>30</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>312</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>313</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="17"/>
@@ -19409,13 +19409,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>27</v>
@@ -19429,10 +19429,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>316</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -19440,7 +19440,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="17"/>
@@ -19455,13 +19455,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>27</v>
@@ -19475,10 +19475,10 @@
         <v>30</v>
       </c>
       <c r="I6" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>318</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -19486,7 +19486,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="17"/>
@@ -19501,13 +19501,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>27</v>
@@ -19521,10 +19521,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>322</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -19532,7 +19532,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="17"/>
@@ -19547,13 +19547,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>27</v>
@@ -19567,10 +19567,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -19578,7 +19578,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="17"/>
@@ -19593,7 +19593,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>18</v>
@@ -19615,12 +19615,12 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="17"/>
@@ -19635,13 +19635,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>54</v>
@@ -19655,20 +19655,20 @@
         <v>30</v>
       </c>
       <c r="I10" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="K10" s="30" t="s">
         <v>327</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>328</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="17"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2457D9-FE2C-5240-860F-242F4FF41AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B5ED95-9983-994F-A2A7-DF2620E35626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="344">
   <si>
     <t>table_name</t>
   </si>
@@ -1148,6 +1148,9 @@
   <si>
     <t>ACTIVE</t>
   </si>
+  <si>
+    <t>none</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,7 +1701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3994,7 +3997,9 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4" t="s">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B5ED95-9983-994F-A2A7-DF2620E35626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AFCBF-C532-334D-8BD6-952FD4F3CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="342">
   <si>
     <t>table_name</t>
   </si>
@@ -547,15 +547,6 @@
   </si>
   <si>
     <t>risk_score</t>
-  </si>
-  <si>
-    <t>CREC</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>crec_lookup</t>
   </si>
   <si>
     <t>caseactorgroup</t>
@@ -1151,6 +1142,9 @@
   <si>
     <t>none</t>
   </si>
+  <si>
+    <t>Client Phone = not null</t>
+  </si>
 </sst>
 </file>
 
@@ -1596,52 +1590,52 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>332</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>37</v>
@@ -1649,19 +1643,19 @@
     </row>
     <row r="3" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>99</v>
@@ -1669,19 +1663,22 @@
     </row>
     <row r="4" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>341</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>339</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>99</v>
@@ -1701,7 +1698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78:L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3447,7 +3444,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -3998,7 +3995,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -4287,17 +4284,11 @@
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="L78" s="12"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -4314,7 +4305,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>27</v>
@@ -4345,7 +4336,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>59</v>
@@ -4378,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>20</v>
@@ -5745,25 +5736,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>34</v>
@@ -5790,16 +5781,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5828,7 +5819,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -12419,7 +12410,7 @@
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
@@ -12434,24 +12425,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
@@ -12460,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -12468,21 +12459,21 @@
         <v>99</v>
       </c>
       <c r="P3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -12494,20 +12485,20 @@
         <v>30</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -12522,23 +12513,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>54</v>
@@ -12552,18 +12543,18 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>59</v>
@@ -12576,7 +12567,7 @@
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14027,16 +14018,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>16</v>
@@ -14046,264 +14037,264 @@
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15776,127 +15767,127 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -17333,16 +17324,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17351,10 +17342,10 @@
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17363,10 +17354,10 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17375,10 +17366,10 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17387,10 +17378,10 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17399,10 +17390,10 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17411,10 +17402,10 @@
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17423,10 +17414,10 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17435,10 +17426,10 @@
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17447,10 +17438,10 @@
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17459,10 +17450,10 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17471,10 +17462,10 @@
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17483,10 +17474,10 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17495,10 +17486,10 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17507,10 +17498,10 @@
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17519,10 +17510,10 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17531,10 +17522,10 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17543,10 +17534,10 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17555,10 +17546,10 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -17567,10 +17558,10 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17579,10 +17570,10 @@
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17591,10 +17582,10 @@
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17603,10 +17594,10 @@
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17615,10 +17606,10 @@
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17627,10 +17618,10 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17639,10 +17630,10 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17651,10 +17642,10 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17663,10 +17654,10 @@
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17675,10 +17666,10 @@
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17687,10 +17678,10 @@
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17699,10 +17690,10 @@
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17711,10 +17702,10 @@
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17723,10 +17714,10 @@
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17735,10 +17726,10 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17747,10 +17738,10 @@
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17759,10 +17750,10 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19278,7 +19269,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>18</v>
@@ -19293,7 +19284,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -19305,7 +19296,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="30"/>
       <c r="R2" s="17"/>
@@ -19320,13 +19311,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>20</v>
@@ -19336,7 +19327,7 @@
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
@@ -19349,10 +19340,10 @@
         <v>99</v>
       </c>
       <c r="P3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -19366,16 +19357,16 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E4" s="31" t="b">
         <v>0</v>
@@ -19386,20 +19377,20 @@
         <v>30</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="17"/>
@@ -19414,13 +19405,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>27</v>
@@ -19434,10 +19425,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -19445,7 +19436,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="17"/>
@@ -19460,13 +19451,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>27</v>
@@ -19480,10 +19471,10 @@
         <v>30</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -19491,7 +19482,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="17"/>
@@ -19506,13 +19497,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>27</v>
@@ -19526,10 +19517,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -19537,7 +19528,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="17"/>
@@ -19552,13 +19543,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>27</v>
@@ -19583,7 +19574,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="17"/>
@@ -19598,7 +19589,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>18</v>
@@ -19620,12 +19611,12 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="17"/>
@@ -19640,13 +19631,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>54</v>
@@ -19660,20 +19651,20 @@
         <v>30</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="17"/>
